--- a/englishhao/稻壳/课程表/【竖版】课程表(作息时间、晨读、晚自习、任课教师、下拉列表选择课程).xlsx
+++ b/englishhao/稻壳/课程表/【竖版】课程表(作息时间、晨读、晚自习、任课教师、下拉列表选择课程).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="10740"/>
+    <workbookView windowWidth="24180" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="竖版（初、高中）" sheetId="1" r:id="rId1"/>
@@ -233,9 +233,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="47"/>
+      <sz val="6"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="庞门正道标题体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -264,7 +264,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,7 +272,75 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,8 +353,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,29 +376,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -331,23 +384,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -363,45 +401,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,7 +416,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,13 +566,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,151 +584,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,45 +801,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -850,17 +811,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -889,6 +839,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -897,6 +882,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -905,10 +905,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -917,133 +917,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1051,107 +1051,141 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1218,16 +1252,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>707390</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>574040</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
+      <xdr:rowOff>400050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>619125</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1236,8 +1270,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3498215" y="285750"/>
-          <a:ext cx="3855085" cy="333375"/>
+          <a:off x="4136390" y="400050"/>
+          <a:ext cx="3216910" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1417,18 +1451,18 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
+    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>41275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>266065</xdr:colOff>
+      <xdr:colOff>75565</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>19685</xdr:rowOff>
     </xdr:to>
@@ -1447,7 +1481,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="428625" y="41275"/>
+          <a:off x="238125" y="41275"/>
           <a:ext cx="1856740" cy="727710"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1457,6 +1491,67 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>723265</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文本框 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="523875"/>
+          <a:ext cx="2152015" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="600"/>
+            <a:t>更多教学及学习工具，请到WPS稻壳搜索“八不戒”下载。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1464,16 +1559,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>951865</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>75565</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
+      <xdr:rowOff>400050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>619125</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1482,8 +1577,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3284855" y="285750"/>
-          <a:ext cx="4284980" cy="333375"/>
+          <a:off x="4295140" y="400050"/>
+          <a:ext cx="3084830" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1663,18 +1758,18 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
+    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>41275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>266065</xdr:colOff>
+      <xdr:colOff>75565</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>19685</xdr:rowOff>
     </xdr:to>
@@ -1693,7 +1788,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="742315" y="41275"/>
+          <a:off x="361950" y="41275"/>
           <a:ext cx="1856740" cy="727710"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1701,6 +1796,166 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>514350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>126365</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文本框 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2193925" y="514350"/>
+          <a:ext cx="2152015" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="600"/>
+            <a:t>更多教学及学习工具，请到WPS稻壳搜索“八不戒”下载。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1966,25 +2221,26 @@
   <sheetPr/>
   <dimension ref="B1:K28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.125" customWidth="1"/>
-    <col min="2" max="2" width="4.375" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="11" width="10.125" customWidth="1"/>
+    <col min="1" max="1" width="2.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="2" customWidth="1"/>
+    <col min="5" max="11" width="10.125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="51" customHeight="1" spans="2:11">
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
@@ -2322,7 +2578,7 @@
     </row>
     <row r="22" ht="20" customHeight="1" spans="2:11">
       <c r="B22" s="18"/>
-      <c r="C22" s="1"/>
+      <c r="C22" s="2"/>
       <c r="D22" s="16"/>
       <c r="E22" s="19"/>
       <c r="F22" s="10"/>
@@ -2338,7 +2594,7 @@
     </row>
     <row r="23" ht="20" customHeight="1" spans="2:11">
       <c r="B23" s="18"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="2"/>
       <c r="D23" s="16"/>
       <c r="E23" s="19"/>
       <c r="F23" s="10"/>
@@ -2354,7 +2610,7 @@
     </row>
     <row r="24" ht="20" customHeight="1" spans="2:11">
       <c r="B24" s="18"/>
-      <c r="C24" s="1"/>
+      <c r="C24" s="2"/>
       <c r="D24" s="16"/>
       <c r="E24" s="19"/>
       <c r="F24" s="10"/>
@@ -2370,7 +2626,7 @@
     </row>
     <row r="25" ht="20" customHeight="1" spans="2:11">
       <c r="B25" s="18"/>
-      <c r="C25" s="1"/>
+      <c r="C25" s="2"/>
       <c r="D25" s="16"/>
       <c r="E25" s="19"/>
       <c r="F25" s="10"/>
@@ -2386,7 +2642,7 @@
     </row>
     <row r="26" ht="20" customHeight="1" spans="2:11">
       <c r="B26" s="18"/>
-      <c r="C26" s="1"/>
+      <c r="C26" s="2"/>
       <c r="D26" s="16"/>
       <c r="E26" s="19"/>
       <c r="F26" s="10"/>
@@ -2402,7 +2658,7 @@
     </row>
     <row r="27" ht="20" customHeight="1" spans="2:11">
       <c r="B27" s="18"/>
-      <c r="C27" s="1"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="16"/>
       <c r="E27" s="19"/>
       <c r="F27" s="10"/>
@@ -2431,9 +2687,9 @@
       <c r="K28" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G1:K1"/>
+  <sheetProtection password="FA3F" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" objects="1"/>
+  <mergeCells count="12">
+    <mergeCell ref="E1:K1"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="E11:K11"/>
     <mergeCell ref="B16:C16"/>
@@ -2447,7 +2703,7 @@
     <mergeCell ref="B21:E28"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G22:G28 J22:J28 E12:K15 E17:K18 E5:K7 E9:K10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G22:G28 J22:J28 E12:K15 E17:K18 E5:K7 E9:K10">
       <formula1>学科!$A$1:$A$25</formula1>
     </dataValidation>
   </dataValidations>
@@ -2463,25 +2719,26 @@
   <sheetPr/>
   <dimension ref="B1:I25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="68" zoomScaleNormal="68" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.24166666666667" customWidth="1"/>
-    <col min="2" max="2" width="4.375" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="9" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="2" customWidth="1"/>
+    <col min="5" max="9" width="13.625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="51" customHeight="1" spans="2:9">
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
@@ -2812,9 +3069,9 @@
       <c r="I25" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G1:I1"/>
+  <sheetProtection password="FA3F" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" objects="1"/>
+  <mergeCells count="19">
+    <mergeCell ref="E1:I1"/>
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="E11:I11"/>
@@ -2835,7 +3092,7 @@
     <mergeCell ref="B20:C25"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21:E25 H21:H25 E5:I7 E9:I10 E12:I14 E16:I17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E21:E25 H21:H25 E5:I7 E9:I10 E12:I14 E16:I17">
       <formula1>学科!$A$1:$A$25</formula1>
     </dataValidation>
   </dataValidations>
